--- a/biology/Médecine/Université_de_médecine_de_Pyongyang/Université_de_médecine_de_Pyongyang.xlsx
+++ b/biology/Médecine/Université_de_médecine_de_Pyongyang/Université_de_médecine_de_Pyongyang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Pyongyang</t>
+          <t>Université_de_médecine_de_Pyongyang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’université de médecine de Pyongyang est la plus prestigieuse université de médecine de Corée du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’université de médecine de Pyongyang est la plus prestigieuse université de médecine de Corée du Nord.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Pyongyang</t>
+          <t>Université_de_médecine_de_Pyongyang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après que le département des sciences médicales de l'université Kim Il-sung ait été séparé en 1948, l'université de médecine de Pyongyang a été officiellement fondée par le gouvernement nord-coréen[1].
-En 1962, Kim Bong-han, alors professeur à l'université de médecine de Pyongyang, a rapporté la découverte de structure anatomiques relatives aux méridiens en acupuncture. Ces structures ont été nommées corpuscules de Bonghan  (BHCs) et conduits de Bonghan (BHDs)[2].
-Le 24 novembre 2010, le dirigeant de la Corée du Nord, Kim Jong-il, a fait une visite à l'université[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après que le département des sciences médicales de l'université Kim Il-sung ait été séparé en 1948, l'université de médecine de Pyongyang a été officiellement fondée par le gouvernement nord-coréen.
+En 1962, Kim Bong-han, alors professeur à l'université de médecine de Pyongyang, a rapporté la découverte de structure anatomiques relatives aux méridiens en acupuncture. Ces structures ont été nommées corpuscules de Bonghan  (BHCs) et conduits de Bonghan (BHDs).
+Le 24 novembre 2010, le dirigeant de la Corée du Nord, Kim Jong-il, a fait une visite à l'université.
 </t>
         </is>
       </c>
